--- a/世燁老師這邊的論文/已閱讀/嚴肅遊戲/問卷題目.xlsx
+++ b/世燁老師這邊的論文/已閱讀/嚴肅遊戲/問卷題目.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenweicheng/github/obsidian-academic-research/世燁老師這邊的論文/已閱讀/嚴肅遊戲/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C40FA52-700F-154C-BE67-5328B1DCAD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D585B88-6372-B74C-8754-C15236C53185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="700" windowWidth="26540" windowHeight="15780" xr2:uid="{7D72D24C-1BC9-3642-8D3D-7EB6A1EA7220}"/>
+    <workbookView xWindow="240" yWindow="700" windowWidth="26540" windowHeight="15780" activeTab="5" xr2:uid="{7D72D24C-1BC9-3642-8D3D-7EB6A1EA7220}"/>
   </bookViews>
   <sheets>
     <sheet name="所有量表問題" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,12 @@
     <sheet name="問卷本卷1" sheetId="2" r:id="rId3"/>
     <sheet name="遊戲結構與HOTS結合" sheetId="4" r:id="rId4"/>
     <sheet name="工作表1" sheetId="5" r:id="rId5"/>
+    <sheet name="參考" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">參考!$A$1:$A$184</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="458">
   <si>
     <t>構面</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,22 +74,6 @@
   </si>
   <si>
     <t>PS4</t>
-  </si>
-  <si>
-    <t>我相信我努力可以解決問題。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>當我遇到問題時，我覺得我有能力解決他。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我願意面對問題，並努力解決他。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我可以解決我以前遇到的問題。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>批判性思考（CT，critical thinking）α= 0.84, mean=3.62, SD=0.63</t>
@@ -372,21 +360,9 @@
     <t>我就如何讓課堂變得更好提出建議。</t>
   </si>
   <si>
-    <t>我上課認真聽講。</t>
-  </si>
-  <si>
-    <t>我上課專心聽講。</t>
-  </si>
-  <si>
-    <t>在聆聽老師講新課題時，我很努力學習。</t>
-  </si>
-  <si>
     <t>我在學校很努力學習。</t>
   </si>
   <si>
-    <t>當我們在課堂上開始學習新知識時，我很努力學習。</t>
-  </si>
-  <si>
     <t>我會讓老師知道我對什麽感興趣。</t>
   </si>
   <si>
@@ -409,9 +385,6 @@
   </si>
   <si>
     <t>在開始學習之前，我會想一想我想完成什麽任務。</t>
-  </si>
-  <si>
-    <t>上課時，我對所學內容感到好奇。</t>
   </si>
   <si>
     <t>主動參與（agentic engagement）</t>
@@ -669,302 +642,1415 @@
     <t>12. 網路課程包含技術要求資訊。</t>
   </si>
   <si>
+    <t>14. 為關閉瀏覽器中圖形資訊顯示的使用者做了適當調整，缺少圖形不會削弱資訊價值。</t>
+  </si>
+  <si>
+    <t>15. 顯示網頁的方式允許更改預設顯示特性以適應視覺障礙或偏好，不會導致資訊損失。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16. 功能術語在整個網路課程中使用得一致。 </t>
+  </si>
+  <si>
+    <t>17. 整個網路課程中使用的字體、顏色和大小是一致的。</t>
+  </si>
+  <si>
+    <t>18. 網路課程在其設計上從一個部分到另一個部分保持適當的一致性水平。</t>
+  </si>
+  <si>
+    <t>19. 螢幕上最重要的資訊被放置在最有可能吸引學習者注意的區域。</t>
+  </si>
+  <si>
+    <t>20. 該課程具有吸引力，可吸引學習者的感官。</t>
+  </si>
+  <si>
+    <t>22. 字體(樣式、顏色、飽和度)無論在螢幕上還是列印版本中都易於閱讀。</t>
+  </si>
+  <si>
+    <t>23. 網路課程沒有過多需要連續閱讀的長文字內容，沒有互動。</t>
+  </si>
+  <si>
+    <t>24. 學習者在介紹概念和技能後有機會立即練習，練習活動以有利於將所學應用到工作中的方式鍛鍊知識和技能。</t>
+  </si>
+  <si>
+    <t>25. 網路課程讓學習者參與與學習目標和目的緊密相關的任務。</t>
+  </si>
+  <si>
+    <t>26. 網路課程使用遊戲、模擬、角色扮演活動和案例研究來吸引、維持學習者興趣和保持動機。</t>
+  </si>
+  <si>
+    <t>27. 內容以適當的順序組織，並分成小的模組以便於靈活學習。</t>
+  </si>
+  <si>
+    <t>28. 課程中的材料準確且是最新的，涵蓋主題的足夠廣度和深度以滿足學習目標。</t>
+  </si>
+  <si>
+    <t>29. 以盡可能模擬現實世界中可用性和使用情況的方式提供資源。</t>
+  </si>
+  <si>
+    <t>30. 文字塊以簡潔實用的最小化風格撰寫。</t>
+  </si>
+  <si>
+    <t>31. 網路課程提供一系列與學習環境相適應的資源(網站鏈接、案例研究、模擬、問題、示例)。</t>
+  </si>
+  <si>
+    <t>32. 使用的詞彙和術語適合學習者。</t>
+  </si>
+  <si>
+    <t>33. 用具體、特定的範例說明抽象概念(原理、公式、規則等)。</t>
+  </si>
+  <si>
+    <t>34. 網路課程的所有單元/模組都包含概述和總結。</t>
+  </si>
+  <si>
+    <t>35. 讓學習者知悉每個單元/模組的學習目標。</t>
+  </si>
+  <si>
+    <t>36.  圖形和多媒體有助於學習關鍵內容，而不僅僅是為了娛樂或可能分散注意力。</t>
+  </si>
+  <si>
+    <t>37. 適當使用圖形(插圖、照片、圖表、圖解等)，例如用於傳達視覺和空間概念。</t>
+  </si>
+  <si>
+    <t>38. 包含的媒體(文本、圖像、動畫等)與課程的目標和設計有緊密聯繫。</t>
+  </si>
+  <si>
+    <t>39. 網路課程提供機會和支持，通過討論或其他協作活動與他人互動學習。</t>
+  </si>
+  <si>
+    <t>40. 學習者清楚要完成什麼，以及使用它會獲得什麗收穫。</t>
+  </si>
+  <si>
+    <t>41. 網路課程設計了個人和團體兩種活動。</t>
+  </si>
+  <si>
+    <t>42. 網路課程為學習者提供反思的機會。</t>
+  </si>
+  <si>
+    <t>43. 網路課程為學習者提供通過電子郵件或其他網際網路通信與導師、專家、同儕或其他人獲取詳細反饋的機會。</t>
+  </si>
+  <si>
+    <t>44. 在任何特定時間提供的反饋都是針對學習者正在學習的內容、正在解決的問題或正在完成的任務進行調整。</t>
+  </si>
+  <si>
+    <t>十一、教學評估(Instructional assessment)</t>
+  </si>
+  <si>
+    <t>45. 網路課程提供自我評估的機會，以提高學習成就。</t>
+  </si>
+  <si>
+    <t>46. 在適當的情況下，提供較高階的評估(分析、綜合和評價)，而不是較低階的評估(回憶和認知)。</t>
+  </si>
+  <si>
+    <t>47. 期末測試和其他評估足以衡量學習目標的實現程度。</t>
+  </si>
+  <si>
+    <t>48. 線上說明或文件書寫清晰。</t>
+  </si>
+  <si>
+    <t>49. 線上說明是針對特定畫面或內容的。</t>
+  </si>
+  <si>
+    <t>50. 網路課程提供支持學習的工具(做筆記、工作說明、資源、詞彙表等)。</t>
+  </si>
+  <si>
+    <t>成對樣本ANOVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>變異來源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>df</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Partial Eta Squared</t>
+  </si>
+  <si>
+    <t>SS(第三類平方和)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS（均方）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note. *p &lt; .05, **p &lt; .01, ***p &lt; .001</t>
+  </si>
+  <si>
+    <t>Original</t>
+  </si>
+  <si>
+    <t>Surprising</t>
+  </si>
+  <si>
+    <t>Valuable</t>
+  </si>
+  <si>
+    <t>Logical</t>
+  </si>
+  <si>
+    <t>Useful</t>
+  </si>
+  <si>
+    <t>Understandable</t>
+  </si>
+  <si>
+    <t>Organic</t>
+  </si>
+  <si>
+    <t>Elegant</t>
+  </si>
+  <si>
+    <t>Well-crafted</t>
+  </si>
+  <si>
+    <t>group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一、導航性(Navigation)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Navigation</t>
+  </si>
+  <si>
+    <t>二、可學習性(Learnability)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learnability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">三、無障礙性(Accessibility) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Accessibility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>四、一致性(Consistency)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consistency</t>
+  </si>
+  <si>
+    <t>五、視覺設計(Visual design)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visual design</t>
+  </si>
+  <si>
+    <t>六、互動性(Interactivity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interactivity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">七、內容和資源(Content and resources)  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Content and resources</t>
+  </si>
+  <si>
+    <t>八、媒體使用(Media use)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Media use</t>
+  </si>
+  <si>
+    <t>九、學習策略設計(Learning strategies design)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learning strategies design</t>
+  </si>
+  <si>
+    <t>十、教學反饋(Instructional feedback)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Instructional feedback</t>
+  </si>
+  <si>
+    <t>十二、學習指導和支持 (Learner guidance and support)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Learner guidance and support</t>
+  </si>
+  <si>
+    <t>在這堂課我遇到問題時，我覺得我有能力解決他。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我相信我努力可以解決這堂課所碰到的問題。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上完這堂課後，如果我在遇到類似的問題，我願意面對問題，並努力解決他。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在上完這堂課後，我可以解決我以前遇到的問題。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在這堂課很認真聽講。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在這堂課，上課專心聽講。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在這堂課上，聆聽老師講新課題時，我很努力學習。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>當我們在課堂課上開始學習新知識時，我很努力學習。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我對這堂課所學內容感到好奇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>13. 網路課程沒有技術問題。</t>
-  </si>
-  <si>
-    <t>14. 為關閉瀏覽器中圖形資訊顯示的使用者做了適當調整，缺少圖形不會削弱資訊價值。</t>
-  </si>
-  <si>
-    <t>15. 顯示網頁的方式允許更改預設顯示特性以適應視覺障礙或偏好，不會導致資訊損失。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16. 功能術語在整個網路課程中使用得一致。 </t>
-  </si>
-  <si>
-    <t>17. 整個網路課程中使用的字體、顏色和大小是一致的。</t>
-  </si>
-  <si>
-    <t>18. 網路課程在其設計上從一個部分到另一個部分保持適當的一致性水平。</t>
-  </si>
-  <si>
-    <t>19. 螢幕上最重要的資訊被放置在最有可能吸引學習者注意的區域。</t>
-  </si>
-  <si>
-    <t>20. 該課程具有吸引力，可吸引學習者的感官。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個遊戲沒有技術方面問題</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個遊戲有做好圖示說明，不會讓我不知道如何遊玩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個遊戲使用的字體、顏色和大小是一致的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個遊戲整體風格一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個遊戲很吸引我。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21. 文字和圖形清晰可辨。</t>
-  </si>
-  <si>
-    <t>22. 字體(樣式、顏色、飽和度)無論在螢幕上還是列印版本中都易於閱讀。</t>
-  </si>
-  <si>
-    <t>23. 網路課程沒有過多需要連續閱讀的長文字內容，沒有互動。</t>
-  </si>
-  <si>
-    <t>24. 學習者在介紹概念和技能後有機會立即練習，練習活動以有利於將所學應用到工作中的方式鍛鍊知識和技能。</t>
-  </si>
-  <si>
-    <t>25. 網路課程讓學習者參與與學習目標和目的緊密相關的任務。</t>
-  </si>
-  <si>
-    <t>26. 網路課程使用遊戲、模擬、角色扮演活動和案例研究來吸引、維持學習者興趣和保持動機。</t>
-  </si>
-  <si>
-    <t>27. 內容以適當的順序組織，並分成小的模組以便於靈活學習。</t>
-  </si>
-  <si>
-    <t>28. 課程中的材料準確且是最新的，涵蓋主題的足夠廣度和深度以滿足學習目標。</t>
-  </si>
-  <si>
-    <t>29. 以盡可能模擬現實世界中可用性和使用情況的方式提供資源。</t>
-  </si>
-  <si>
-    <t>30. 文字塊以簡潔實用的最小化風格撰寫。</t>
-  </si>
-  <si>
-    <t>31. 網路課程提供一系列與學習環境相適應的資源(網站鏈接、案例研究、模擬、問題、示例)。</t>
-  </si>
-  <si>
-    <t>32. 使用的詞彙和術語適合學習者。</t>
-  </si>
-  <si>
-    <t>33. 用具體、特定的範例說明抽象概念(原理、公式、規則等)。</t>
-  </si>
-  <si>
-    <t>34. 網路課程的所有單元/模組都包含概述和總結。</t>
-  </si>
-  <si>
-    <t>35. 讓學習者知悉每個單元/模組的學習目標。</t>
-  </si>
-  <si>
-    <t>36.  圖形和多媒體有助於學習關鍵內容，而不僅僅是為了娛樂或可能分散注意力。</t>
-  </si>
-  <si>
-    <t>37. 適當使用圖形(插圖、照片、圖表、圖解等)，例如用於傳達視覺和空間概念。</t>
-  </si>
-  <si>
-    <t>38. 包含的媒體(文本、圖像、動畫等)與課程的目標和設計有緊密聯繫。</t>
-  </si>
-  <si>
-    <t>39. 網路課程提供機會和支持，通過討論或其他協作活動與他人互動學習。</t>
-  </si>
-  <si>
-    <t>40. 學習者清楚要完成什麼，以及使用它會獲得什麗收穫。</t>
-  </si>
-  <si>
-    <t>41. 網路課程設計了個人和團體兩種活動。</t>
-  </si>
-  <si>
-    <t>42. 網路課程為學習者提供反思的機會。</t>
-  </si>
-  <si>
-    <t>43. 網路課程為學習者提供通過電子郵件或其他網際網路通信與導師、專家、同儕或其他人獲取詳細反饋的機會。</t>
-  </si>
-  <si>
-    <t>44. 在任何特定時間提供的反饋都是針對學習者正在學習的內容、正在解決的問題或正在完成的任務進行調整。</t>
-  </si>
-  <si>
-    <t>十一、教學評估(Instructional assessment)</t>
-  </si>
-  <si>
-    <t>45. 網路課程提供自我評估的機會，以提高學習成就。</t>
-  </si>
-  <si>
-    <t>46. 在適當的情況下，提供較高階的評估(分析、綜合和評價)，而不是較低階的評估(回憶和認知)。</t>
-  </si>
-  <si>
-    <t>47. 期末測試和其他評估足以衡量學習目標的實現程度。</t>
-  </si>
-  <si>
-    <t>48. 線上說明或文件書寫清晰。</t>
-  </si>
-  <si>
-    <t>49. 線上說明是針對特定畫面或內容的。</t>
-  </si>
-  <si>
-    <t>50. 網路課程提供支持學習的工具(做筆記、工作說明、資源、詞彙表等)。</t>
-  </si>
-  <si>
-    <t>成對樣本ANOVA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>變異來源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>df</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文字和圖形清晰可辨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個遊戲有互動。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個遊戲不會讓我感到無聊。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個遊戲有具體學習目標。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個遊戲讓我覺他對於知識有具體化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個遊戲有讓我學到東西。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個遊戲有地方讓我進行意見反饋。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>這個遊戲可以讓我學習提高成就。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遊戲說明清晰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>subscales</t>
+  </si>
+  <si>
+    <t>indicators</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SD</t>
   </si>
   <si>
     <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>p</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Partial Eta Squared</t>
-  </si>
-  <si>
-    <t>SS(第三類平方和)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS（均方）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Note. *p &lt; .05, **p &lt; .01, ***p &lt; .001</t>
-  </si>
-  <si>
-    <t>&lt;.00|***</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>Surprising</t>
-  </si>
-  <si>
-    <t>Valuable</t>
-  </si>
-  <si>
-    <t>Logical</t>
-  </si>
-  <si>
-    <t>Useful</t>
-  </si>
-  <si>
-    <t>Understandable</t>
-  </si>
-  <si>
-    <t>Organic</t>
-  </si>
-  <si>
-    <t>Elegant</t>
-  </si>
-  <si>
-    <t>Well-crafted</t>
-  </si>
-  <si>
-    <t>group</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>EG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.038*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.025*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.026*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一、導航性(Navigation)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Navigation</t>
-  </si>
-  <si>
-    <t>二、可學習性(Learnability)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learnability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">三、無障礙性(Accessibility) </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Accessibility</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>四、一致性(Consistency)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Consistency</t>
-  </si>
-  <si>
-    <t>五、視覺設計(Visual design)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Visual design</t>
-  </si>
-  <si>
-    <t>六、互動性(Interactivity)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interactivity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">七、內容和資源(Content and resources)  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Content and resources</t>
-  </si>
-  <si>
-    <t>八、媒體使用(Media use)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Media use</t>
-  </si>
-  <si>
-    <t>九、學習策略設計(Learning strategies design)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learning strategies design</t>
-  </si>
-  <si>
-    <t>十、教學反饋(Instructional feedback)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Instructional feedback</t>
-  </si>
-  <si>
-    <t>十二、學習指導和支持 (Learner guidance and support)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Learner guidance and support</t>
+  </si>
+  <si>
+    <t>0.018*</t>
+  </si>
+  <si>
+    <t>0.023*</t>
+  </si>
+  <si>
+    <t>0.035*</t>
+  </si>
+  <si>
+    <t>Elaboration</t>
+  </si>
+  <si>
+    <t>&amp;</t>
+  </si>
+  <si>
+    <t>Synthesis</t>
+  </si>
+  <si>
+    <t>&lt;0.001***</t>
+  </si>
+  <si>
+    <t>Note.</t>
+  </si>
+  <si>
+    <t>*p</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>.05,</t>
+  </si>
+  <si>
+    <t>**p</t>
+  </si>
+  <si>
+    <t>.01,</t>
+  </si>
+  <si>
+    <t>***p</t>
+  </si>
+  <si>
+    <t>Bloom, B. S. (Ed.). (1968). _Taxonomy of Educational Objectives: The Classification of Educational Goals; Handbook. Cognitive Domain_. McKay.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>K. Rapeepisarn, K. W. Wong, C. C. Fung, and M. S. Khine, ‘‘The rela- tionship between game genres, learning techniques and learning styles in educational computer games,’’ in Proc. Int. Conf. Technol. E-Learn. Digit. Entertainment. Berlin, Germany: Springer, Jun. 2008, pp. 497–508.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Prensky, M. (2005). Computer games and learning: Digital game-based learning. _Handbook of computer game studies_, _18_(2005), 97-122.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abd Rahim, N. H., Hamid, S., Kiah, M. L. M., Shamshirband, S., &amp; Furnell, S. (2015). A systematic review of approaches to assessing cybersecurity awareness. _Kybernetes_, _44_(4), 606-622.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abdullah, A. H., Mokhtar, M., Abd Halim, N. D., Ali, D. F., Tahir, L. M., &amp; Kohar, U. H. A. (2016). Mathematics teachers’ level of knowledge and practice on the implementation of higher-order thinking skills (HOTS). _Eurasia Journal of Mathematics, Science and Technology Education_, _13_(1), 3-17.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Adams, M., &amp; Makramalla, M. (2015). Cybersecurity skills training: An attacker-centric gamified approach. _Technology Innovation Management Review_, _5_(1).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ahmad, N., Asma’Mokhtar, U., Fauzi, W. F. P., Othman, Z. A., Yeop, Y. H., &amp; Abdullah, S. N. H. S. (2018, November). Cyber security situational awareness among parents. In _2018 cyber resilience conference (crc)_ (pp. 1-3). IEEE.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ak, O., &amp; Kutlu, B. (2017). Comparing 2D and 3D game‐based learning environments in terms of learning gains and student perceptions. _British Journal of Educational Technology_, _48_(1), 129-144.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alam, A. (2021, November). Possibilities and apprehensions in the landscape of artificial intelligence in education. In _2021 International Conference on Computational Intelligence and Computing Applications (ICCICA)_ (pp. 1-8). IEEE.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alam, A. (2022). Cloud-based e-learning: scaffolding the environment for adaptive e-learning ecosystem based on cloud computing infrastructure. In _Computer Communication, Networking and IoT: Proceedings of 5th ICICC 2021, Volume 2_(pp. 1-9). Singapore: Springer Nature Singapore.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alam, A. (2022). Impact of university’s human resources practices on professors’ occupational performance: empirical evidence from India’s higher education sector. In _Inclusive businesses in developing economies: Converging people, profit, and corporate citizenship_ (pp. 107-131). Cham: Springer International Publishing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alam, A. (2022). Platform utilising blockchain technology for eLearning and online education for open sharing of academic proficiency and progress records. In _Smart Data Intelligence: Proceedings of ICSMDI 2022_ (pp. 307-320). Singapore: Springer Nature Singapore.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhou, Y., Gan, L., Chen, J., Wijaya, T. T., &amp; Li, Y. (2023). Development and validation of a higher-order thinking skills assessment scale for pre-service teachers. _Thinking Skills and Creativity_, _48_, 101272.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alexei, L. A., Nistiriuk, P., &amp; Alexei, A. (2021). Empirical study of cyber security threats in Moldovan higher education institutions. In _Electronics, Communications and Computing_ (pp. 241-244).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Almerich, G., Suárez‐Rodríguez, J., Díaz‐García, I., &amp; Cebrián‐Cifuentes, S. (2020). 21st‐century competences: The relation of ICT competences with higher‐order thinking capacities and teamwork competences in university students. _Journal of Computer Assisted Learning_, _36_(4), 468-479.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhou, Y., Gan, L., Chen, J., Wijaya, T. T., &amp; Li, Y. (2023). Development and validation of a higher-order thinking skills assessment scale for pre-service teachers. _Thinking Skills and Creativity_, _48_, 101272</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhao, X., Xie, H., Roberts, A., &amp; Sbaffi, L. (2024, April). Promoting Academic Integrity Through Gamification: Testing the Effectiveness of a 3D Immersive Video Game. In _International Conference on Information_ (pp. 65-76). Cham: Springer Nature Switzerland.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zeng, J., Parks, S., &amp; Shang, J. (2020). To learn scientifically, effectively, and enjoyably: A review of educational games. _Human Behavior and Emerging Technologies_, _2_(2), 186-195.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zain, F. M., Sailin, S. N., &amp; Mahmor, N. A. (2022). Promoting higher order thinking skills among pre-service teachers through group-based flipped learning. _International Journal of Instruction_, _15_(3), 519-542.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zafeiropoulou, M., Volioti, C., Keramopoulos, E., &amp; Sapounidis, T. (2021). Developing physics experiments using augmented reality game-based learning approach: A pilot study in primary school. _Computers_, _10_(10), 126.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yuan, Y. H., Liu, C. H., &amp; Kuang, S. S. (2021). An innovative and interactive teaching model for cultivating talent’s digital literacy in decision making, sustainability, and computational thinking. _Sustainability_, _13_(9), 5117.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ı</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ı</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z, G., Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ı</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ld</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ı</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ı</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m, A., Akça, B. A., Kök, A., Özer, A., &amp; Karata</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ş</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, S. (2020). Research trends in mobile learning. _International Review of Research in Open and Distributed Learning_, _21_(3), 175-196.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yasin, A., Liu, L., Li, T., Wang, J., &amp; Zowghi, D. (2018). Design and preliminary evaluation of a cyber Security Requirements Education Game (SREG). _Information and Software Technology_, _95_, 179-200.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wu, T. T., Silitonga, L. M., &amp; Murti, A. T. (2024). Enhancing English writing and higher-order thinking skills through computational thinking. _Computers &amp; Education_, 105012.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wouters, P., Van Nimwegen, C., Van Oostendorp, H., &amp; Van Der Spek, E. D. (2013). A meta-analysis of the cognitive and motivational effects of serious games. _Journal of educational psychology_, _105_(2), 249.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whalen, K., &amp; Paez, A. (2021). Student perceptions of reflection and the acquisition of higher-order thinking skills in a university sustainability course. _Journal of Geography in Higher Education_, _45_(1), 108-127.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Westera, W., Nadolski, R. J., Hummel, H. G., &amp; Wopereis, I. G. (2008). Serious games for higher education: a framework for reducing design complexity. _Journal of Computer Assisted Learning_, _24_(5), 420-432.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wenger, E. (1999). _Communities of practice: Learning, meaning, and identity_. Cambridge university press.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wangen, G. (2017). Information security risk assessment: a method comparison. _Computer_, _50_(4), 52-61.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang, Y., Rajan, P., Sankar, C. S., &amp; Raju, P. K. (2016). Let them play: the impact of mechanics and dynamics of a serious game on student perceptions of learning engagement. _IEEE Transactions on Learning Technologies_, _10_(4), 514-525.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang, C. J., Liu, W. C., Kee, Y. H., &amp; Chian, L. K. (2019). Competence, autonomy, and relatedness in the classroom: understanding students’ motivational processes using the self-determination theory. _Heliyon_, _5_(7).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vygotsky, L. S., &amp; Cole, M. (1978). _Mind in society: Development of higher psychological processes_. Harvard university press.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Visoottiviseth, V., Sainont, R., Boonnak, T., &amp; Thammakulkrajang, V. (2018, July). POMEGA: Security game for building security awareness. In _2018 Seventh ICT International Student Project Conference (ICT-ISPC)_ (pp. 1-6). IEEE.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Virranmäki, E., Valta-Hulkkonen, K., &amp; Pellikka, A. (2021). Geography curricula objectives and students’ performance: Enhancing the student’s higher-order thinking skills?. _Journal of geography_, _120_(3), 97-107.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vermunt, J. D., &amp; Verloop, N. (1999). Congruence and friction between learning and teaching. _Learning and instruction_, _9_(3), 257-280.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vaughn, R. B., Dampier, D. A., &amp; Warkentin, M. B. (2004, October). Building an information security education program. In _Proceedings of the 1st annual conference on Information security curriculum development_ (pp. 41-45).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vargas, J. A., García-Mundo, L., Genero, M., &amp; Piattini, M. (2014, May). A systematic mapping study on serious game quality. In _Proceedings of the 18th International Conference on Evaluation and Assessment in Software Engineering_ (pp. 1-10).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ungerer, L. M. (2016). Digital curation as a core competency in current learning and literacy: A higher education perspective. _The International Review of Research in Open and Distributed Learning_, _17_(5).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Twitchell, D. P. (2007). SecurityCom: a multi-player game for researching and teaching information security teams. _Journal of Digital Forensics, Security and Law_, _2_(4), 1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Truong, K. D., &amp; Tran, B. C. N. (2022). Higher order thinking skills in teaching academic writing: Suggestions for application. _The New English Teacher ISSN 2985-0959 (Online)_, _16_(1), 101-124.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Triantafyllou, S., &amp; Georgiadis, C. K. (2022). Gamification of MOOCs and security awareness in corporate training.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thurlings, M., Vermeulen, M., Bastiaens, T., &amp; Stijnen, S. (2013). Understanding feedback: A learning theory perspective. _Educational Research Review_, _9_, 1-15.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taylor-Jackson, J., McAlaney, J., Foster, J. L., Bello, A., Maurushat, A., &amp; Dale, J. (2020). Incorporating psychology into cyber security education: a pedagogical approach. In _Financial Cryptography and Data Security: FC 2020 International Workshops, AsiaUSEC, CoDeFi, VOTING, and WTSC, Kota Kinabalu, Malaysia, February 14, 2020, Revised Selected Papers 24_ (pp. 207-217). Springer International Publishing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Švábenský, V., Vykopal, J., Cermak, M., &amp; Laštovi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>č</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ka, M. (2018, July). Enhancing cybersecurity skills by creating serious games. In _Proceedings of the 23rd Annual ACM Conference on Innovation and Technology in Computer Science Education_ (pp. 194-199).</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sotamaa, O. (2007, September). Perceptions of Player in Game Design Literature. In _DiGRA Conference_.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subhash, S., &amp; Cudney, E. A. (2018). Gamified learning in higher education: A systematic review of the literature. _Computers in human behavior_, _87_, 192-206.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slimani, A., Yedri, O. B., Elouaai, F., &amp; Bouhorma, M. (2016). Towards a design approach for serious games. _International Journal of Knowledge and Learning_, _11_(1), 58-81.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slimani, A., Elaachak, L., Elouaai, F., &amp; Bouhorma, M. (2016, September). Evaluation-driven design for serious games, the multilayer methodology and collaborative framework. In _2016 8th International Conference on Games and Virtual Worlds for Serious Applications (VS-Games)_ (pp. 1-3). IEEE.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sikder, A. K., Aksu, H., &amp; Uluagac, A. S. (2019). A context-aware framework for detecting sensor-based threats on smart devices. _IEEE Transactions on Mobile Computing_, _19_(2), 245-261.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shirky, C. (2014). Why I just asked my students to put their laptops away. _Medium. com_, _11_.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheng, S., Magnien, B., Kumaraguru, P., Acquisti, A., Cranor, L. F., Hong, J., &amp; Nunge, E. (2007, July). Anti-phishing phil: the design and evaluation of a game that teaches people not to fall for phish. In _Proceedings of the 3rd symposium on Usable privacy and security_ (pp. 88-99).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shah, V., Kumar, A., &amp; Smart, K. (2018). Moving forward by looking backward: Embracing pedagogical principles to develop an innovative MSIS program. _Journal of Information Systems Education_, _29_(3), 139-156.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shackelford, R., McGettrick, A., Sloan, R., Topi, H., Davies, G., Kamali, R., ... &amp; Lunt, B. (2006). Computing curricula 2005: The overview report. _ACM SIGCSE Bulletin_, _38_(1), 456-457.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seale, J., &amp; Schoenberger, N. (2018). Be internet awesome: A critical analysis of google's child-focused internet safety program. _Emerging Library &amp; Information Perspectives_, _1_(1), 34-58.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schrader, C., &amp; Bastiaens, T. J. (2012). The influence of virtual presence: Effects on experienced cognitive load and learning outcomes in educational computer games. _Computers in Human Behavior_, _28_(2), 648-658.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Scheponik, T., Sherman, A. T., DeLatte, D., Phatak, D., Oliva, L., Thompson, J., &amp; Herman, G. L. (2016, October). How students reason about cybersecurity concepts. In _2016 IEEE Frontiers in Education Conference (FIE)_ (pp. 1-5). IEEE.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sapounidis, T., Demetriadis, S., Papadopoulos, P. M., &amp; Stamovlasis, D. (2019). Tangible and graphical programming with experienced children: A mixed methods analysis. _International Journal of Child-Computer Interaction_, _19_, 67-78.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sabin, M., Alrumaih, H., Impagliazzo, J., Lunt, B., Zhang, M., Byers, B., ... &amp; Tang, C. (2017). Information technology curricula 2017: curriculum guidelines for baccalaureate degree programs in information technology. _A Report in the Computing Curricula Series Task Group on Information Technology Curricula_.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ryan, R. M., &amp; Deci, E. L. (2000). Self-determination theory and the facilitation of intrinsic motivation, social development, and well-being. _American psychologist_, _55_(1), 68.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rutherford, T., Farkas, G., Duncan, G., Burchinal, M., Kibrick, M., Graham, J., ... &amp; Martinez, M. E. (2014). A randomized trial of an elementary school mathematics software intervention: Spatial-temporal math. _Journal of Research on Educational Effectiveness_, _7_(4), 358-383.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rogers, E. M., Singhal, A., &amp; Quinlan, M. M. (2014). Diffusion of innovations. In _An integrated approach to communication theory and research_ (pp. 432-448). Routledge.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rapeepisarn, K., Wong, K. W., Fung, C. C., &amp; Khine, M. S. (2008). The relationship between game genres, learning techniques and learning styles in educational computer games. In _Technologies for E-Learning and Digital Entertainment: Third International Conference, Edutainment 2008 Nanjing, China, June 25-27, 2008 Proceedings 3_ (pp. 497-508). Springer Berlin Heidelberg.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratten, V. (2015). A cross-cultural comparison of online behavioural advertising knowledge, online privacy concerns and social networking using the technology acceptance model and social cognitive theory. _Journal of Science &amp; Technology Policy Management_, _6_(1), 25-36.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ratten, V. (2020). Coronavirus (covid-19) and entrepreneurship: changing life and work landscape. _Journal of Small Business &amp; Entrepreneurship_, _32_(5), 503-516.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reid, R., &amp; Van Niekerk, J. (2014). Snakes and ladders for digital natives: information security education for the youth. _Information Management &amp; Computer Security_, _22_(2), 179-190.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Richey, J. E., Zhang, J., Das, R., Andres-Bray, J. M., Scruggs, R., Mogessie, M., ... &amp; McLaren, B. M. (2021, June). Gaming and confrustion explain learning advantages for a math digital learning game. In _International conference on artificial intelligence in education_ (pp. 342-355). Cham: Springer International Publishing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rintayati, P., Lukitasari, H., &amp; Syawaludin, A. (2021). Development of Two-Tier Multiple Choice Test to Assess Indonesian Elementary Students' Higher-Order Thinking Skills. _International Journal of Instruction_, _14_(1), 555-566.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raman, R., Lal, A., &amp; Achuthan, K. (2014, March). Serious games based approach to cyber security concept learning: Indian context. In _2014 International Conference on Green Computing Communication and Electrical Engineering (ICGCCEE)_ (pp. 1-5). IEEE.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rahman, N. A. A., Sairi, I. H., Zizi, N. A. M., &amp; Khalid, F. (2020). The importance of cybersecurity education in school. _International Journal of Information and Education Technology_, _10_(5), 378-382.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qian, M., &amp; Clark, K. R. (2016). Game-based Learning and 21st century skills: A review of recent research. _Computers in human behavior_, _63_, 50-58.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pomasunco, R., &amp; Orosco, J. (2020). ‘Adolescents and risk of ICT. _Revista Electrónica de Investigación Educativa_, _22_(e17), 2-13.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Plauska, I., &amp; Damaševi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>č</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ius, R. (2014). Educational robots for internet-of-things supported collaborative learning. In _Information and Software Technologies: 20th International Conference, ICIST 2014, Druskininkai, Lithuania, October 9-10, 2014. Proceedings 20_ (pp. 346-358). Springer International Publishing.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plass, J. L., Homer, B. D., &amp; Kinzer, C. K. (2015). Foundations of game-based learning. _Educational psychologist_, _50_(4), 258-283.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pila, S., Aladé, F., Sheehan, K. J., Lauricella, A. R., &amp; Wartella, E. A. (2019). Learning to code via tablet applications: An evaluation of Daisy the Dinosaur and Kodable as learning tools for young children. _Computers &amp; Education_, _128_, 52-62.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Phakiti, A. (2018). Assessing higher‐order thinking skills in language learning. _The TESOL encyclopedia of English language teaching_, 1-7.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Parekh, G., DeLatte, D., Herman, G. L., Oliva, L., Phatak, D., Scheponik, T., &amp; Sherman, A. T. (2017). Identifying core concepts of cybersecurity: Results of two Delphi processes. _IEEE Transactions on Education_, _61_(1), 11-20.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alotaibi, N. B. (2019). Cyber bullying and the expected consequences on the students’ academic achievement. _IEEE access_, _7_, 153417-153431.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alrawili, K. S., Osman, K., &amp; Almuntasheri, S. (2020). Effect of Scaffolding Strategies on Higher-Order Thinking Skills in Science Classroom. _Journal of Baltic Science Education_, _19_(5), 718-729.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alsowat, H. (2016). An EFL flipped classroom teaching model: Effects on English language higher-order thinking skills, student engagement and satisfaction. _Journal of Education and Practice_, _7_(9), 108-121.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annansingh, F., &amp; Veli, T. (2016). An investigation into risks awareness and e-safety needs of children on the internet: a study of Devon, UK. _Interactive technology and smart education_, _13_(2), 147-165.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ashley, T. D., Kwon, R., Gourisetti, S. N. G., Katsis, C., Bonebrake, C. A., &amp; Boyd, P. A. (2022). Gamification of cybersecurity for workforce development in critical infrastructure. _IEEE Access_, _10_, 112487-112501.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Askarova, U., &amp; Jabborova, D. (2020). The Use of Game Technologies in Primary Education. _Am. J. Soc. Sci. Educ. Innov_, _2_, 478-485.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bai, H., Pan, W., Hirumi, A., &amp; Kebritchi, M. (2012). Assessing the effectiveness of a 3‐D instructional game on improving mathematics achievement and motivation of middle school students. _British Journal of Educational Technology_, _43_(6), 993-1003.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barak, M., &amp; Shakhman, L. (2008). Fostering higher‐order thinking in science class: teachers’ reflections. _Teachers and Teaching: theory and practice_, _14_(3), 191-208.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bawa, P. (2020). Game on!: Investigating digital game-based versus gamified learning in higher education. _International Journal of Game-Based Learning (IJGBL)_, _10_(3), 16-46.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bhardwaj, J. (2019). Design of a game for cybersecurity awareness.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brezovszky, B., McMullen, J., Veermans, K., Hannula-Sormunen, M. M., Rodríguez-Aflecht, G., Pongsakdi, N., ... &amp; Lehtinen, E. (2019). Effects of a mathematics game-based learning environment on primary school students' adaptive number knowledge. _Computers &amp; Education_, _128_, 63-74.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buckingham, D. (2010). Defining digital literacy. Medienbildung in neuen Kulturräumen. _B. Bachmair (Ed.)_, 59-71.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caldwell, H. (2018). Mobile technologies as a catalyst for pedagogic innovation within teacher education. _International Journal of Mobile and Blended Learning (IJMBL)_, _10_(2), 50-65.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Caulkins, B., Marlowe, T., &amp; Reardon, A. (2019). Cybersecurity skills to address today’s threats. In _Advances in Human Factors in Cybersecurity: Proceedings of the AHFE 2018 International Conference on Human Factors in Cybersecurity, July 21-25, 2018, Loews Sapphire Falls Resort at Universal Studios, Orlando, Florida, USA 9_ (pp. 187-192). Springer International Publishing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen, Y., &amp; He, W. (2013). Security risks and protection in online learning: A survey. _International Review of Research in Open and Distributed Learning_, _14_(5), 108-127.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chen, Z. H., Lu, H. D., &amp; Chou, C. Y. (2019). Using game-based negotiation mechanism to enhance students’ goal setting and regulation. _Computers &amp; Education_, _129_, 71-81.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cisco. (2020). Cisco Annual Internet Report. Available: https://www.magonlinelibrary.com/doi/abs/10.1016/S1361-3723%2820%2930026-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cole, M. (1998). _Cultural psychology: A once and future discipline_. Harvard university press.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Collins, A., Hess, M. A., Hallman, M. G., Johnson, K., Harris, L., Petty, A., &amp; Roussel, L. (2022). DNP team projects: A reflection of team science. _Journal of Doctoral Nursing Practice_, _15_(2), 123-128.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crookall, D. (2010). Serious games, debriefing, and simulation/gaming as a discipline. _Simulation &amp; gaming_, _41_(6), 898-920.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cone, B. D., Irvine, C. E., Thompson, M. F., &amp; Nguyen, T. D. (2007). A video game for cyber security training and awareness. _computers &amp; security_, _26_(1), 63-72.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Crowley, E. (2003, October). Information system security curricula development. In _Proceedings of the 4th conference on Information technology curriculum_ (pp. 249-255).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D. A. Kolb, R. E. Boyatzis, and C. Mainemelis, ‘‘Experiential learning theory: Previous research and new directions,’’ in Perspectives on Thinking, Learning, and Cognitive Styles, R. J. Sternberg and L. F. Zhang, Eds. Mahwah, NJ, USA: Lawrence Erlbaum, 2000, pp. 227–247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Damaševi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>č</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ius, R. (2014). Towards empirical modelling of knowledge transfer in teaching/learning process. In _Information and Software Technologies: 20th International Conference, ICIST 2014, Druskininkai, Lithuania, October 9-10, 2014. Proceedings 20_ (pp. 359-372). Springer International Publishing.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delgado, C., López, D. M., &amp; Rico-Olarte, C. (2019, June). Affective video games: a systematic mapping study. In _International Conference on Human-Computer Interaction_ (pp. 105-113). Cham: Springer International Publishing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Derryberry, A. (2010). Serious games: online games for learning.[pdf] Adobe White Paper.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Di, W., Danxia, X., &amp; Chun, L. (2019). The effects of learner factors on higher-order thinking in the smart classroom environment. _Journal of Computers in Education_, _6_(4), 483-498.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Djambong, T., Freiman, V., Gauvin, S., Paquet, M., &amp; Chiasson, M. (2018). Measurement of computational thinking in K-12 education: The need for innovative practices. _Digital technologies: Sustainable innovations for improving teaching and learning_, 193-222.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dong, P., Han, Y., Guo, X., &amp; Xie, F. (2015). A systematic review of studies on cyber physical system security. _International Journal of Security and Its Applications_, _9_(1), 155-164.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Duffy, T. M. (1996). Constructivism: Implications for the design and delivery of instruction. _Handbook of research for educational communications and technology_, 170-198.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Easterbrook, S. (2014, August). From Computational Thinking to Systems Thinking: A conceptual toolkit for sustainability computing. In _ICT for Sustainability 2014 (ICT4S-14)_ (pp. 235-244). Atlantis Press.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Faith, B. F., Long, Z. A., &amp; Hamid, S. (2024, May). Promoting cybersecurity knowledge via gamification: an innovative intervention design. In _2024 Third International Conference on Distributed Computing and High Performance Computing (DCHPC)_ (pp. 1-8). IEEE.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fatmawati, D., &amp; Setyawan, D. (2018). OIDDE Learning Model: Improving Higher Order Thinking Skills of Biology Teacher Candidates. _International Journal of Instruction_, _11_(2), 249-264.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Franke, U., &amp; Brynielsson, J. (2014). Cyber situational awareness–a systematic review of the literature. _Computers &amp; security_, _46_, 18-31.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fuchslocher, A., Niesenhaus, J., &amp; Krämer, N. (2011). Serious games for health: An empirical study of the game “Balance” for teenagers with diabetes mellitus. _Entertainment Computing_, _2_(2), 97-101.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gao, Y., &amp; Mandryk, R. (2012, May). The acute cognitive benefits of casual exergame play. In _Proceedings of the SIGCHI Conference on Human Factors in Computing Systems_ (pp. 1863-1872).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gee, J. P. (2005). Learning by design: Good video games as learning machines. _E-learning and Digital Media_, _2_(1), 5-16.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Graham, K., Anderson, J., Rife, C., Heitmeyer, B., Patel, P. R., Nykl, S., ... &amp; Merkle, L. D. (2020). Cyberspace odyssey: A competitive team-oriented serious game in computer networking. _IEEE Transactions on Learning Technologies_, _13_(3), 502-515.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gretter, S., &amp; Yadav, A. (2016). Computational thinking and media &amp; information literacy: An integrated approach to teaching twenty-first century skills. _TechTrends_, _60_, 510-516.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Griffiths, M. D., &amp; Kuss, D. J. (2015). Online addictions: Gambling, video gaming, and social networking. _The handbook of the psychology of communication technology_, 384-403.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gros, B. (2007). Digital games in education: The design of games-based learning environments. _Journal of research on technology in education_, _40_(1), 23-38.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gumbheer, C. P., Khedo, K. K., &amp; Bungaleea, A. (2022). Personalized and adaptive context-aware mobile learning: Review, challenges and future directions. _Education and Information Technologies_, _27_(6), 7491-7517.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hamid, N. N. A., &amp; Rahman, S. A. (2018). Impact of social media on Malaysia’s election landscape. _International Journal of Academic Research in Business and Social Sciences_, _8_(9), 275-284.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Harahap, A., &amp; Astrid, A. (2021). Boosting Classroom Interaction Based on Higher Order Thinking Skills (HOTS) in English Learning for Beginners. _International Journal of Language Education_, _5_(1), 477-489.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hatlevik, O. E., Throndsen, I., Loi, M., &amp; Gudmundsdottir, G. B. (2018). Students’ ICT self-efficacy and computer and information literacy: Determinants and relationships. _Computers &amp; Education_, _118_, 107-119.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hatzivasilis, G., Ioannidis, S., Smyrlis, M., Spanoudakis, G., Frati, F., Goeke, L., ... &amp; Koshutanski, H. (2020). Modern aspects of cyber-security training and continuous adaptation of programmes to trainees. _Applied Sciences_, _10_(16), 5702.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hauge, J. M. B., Stefan, I. A., &amp; Stefan, A. (2017). Exploring pervasive entertainment games to construct learning paths. In _Entertainment Computing–ICEC 2017: 16th IFIP TC 14 International Conference, Tsukuba City, Japan, September 18-21, 2017, Proceedings 16_ (pp. 196-201). Springer International Publishing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hautamäki, J., Karjalainen, M., Hämäläinen, T., &amp; Häkkinen, P. (2019). Cyber security exercise: Literature review to pedagogical methodology. In _INTED Proceedings_ (No. 2019). IATED Academy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hendrix, M., Al-Sherbaz, A., &amp; Victoria, B. (2016). Game based cyber security training: are serious games suitable for cyber security training?. _International Journal of Serious Games_, _3_(1), 53-61.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Herrera, A. V., Ron, M., &amp; Rabadão, C. (2017, June). National cyber-security policies oriented to BYOD (bring your own device): Systematic review. In _2017 12th Iberian Conference on Information Systems and Technologies (CISTI)_ (pp. 1-4). IEEE.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hidayah, I., &amp; Asikin, M. (2021). Quality Management of Mathematics Manipulative Products to Support Students' Higher Order Thinking Skills. _International Journal of Instruction_, _14_(1), 537-554.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hijji, M., &amp; Alam, G. (2021). A multivocal literature review on growing social engineering based cyber-attacks/threats during the COVID-19 pandemic: challenges and prospective solutions. _Ieee Access_, _9_, 7152-7169.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Horikami, A., &amp; Takahashi, K. (2022). The tripartite thinking model of creativity. _Thinking Skills and Creativity_, _44_, 101026.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hsiao, H. S., Chang, Y. C., Lin, K. Y., Chen, J. C., Lin, C. Y., Chung, G. H., &amp; Chen, J. H. (2023). Applying the design thinking model to hands-on mechatronics STEM activities for senior high school students to improve the learning performance and learning behavior. _International Journal of Technology and Design Education_, _33_(4), 1389-1408.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huang, W. D., Johnson, T. E., &amp; Han, S. H. C. (2013). Impact of online instructional game features on college students’ perceived motivational support and cognitive investment: A structural equation modeling study. _The Internet and Higher Education_, _17_, 58-68.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Huang, Y. M., Silitonga, L. M., Murti, A. T., &amp; Wu, T. T. (2023). Learner engagement in a business simulation game: Impact on higher-order thinking skills. _Journal of Educational Computing Research_, _61_(1), 96-126.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hung, J. W., Chang, Y. J., Chou, C. X., Wu, W. C., Howell, S., &amp; Lu, W. P. (2018). Developing a suite of motion-controlled games for upper extremity training in children with cerebral palsy: a proof-of-concept study. _Games for health journal_, _7_(5), 327-334.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hwang, G. J., Lai, C. L., Liang, J. C., Chu, H. C., &amp; Tsai, C. C. (2018). A long-term experiment to investigate the relationships between high school students’ perceptions of mobile learning and peer interaction and higher-order thinking tendencies. _Educational Technology Research and Development_, _66_, 75-93.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hwang, G. J., Lai, C. L., Liang, J. C., Chu, H. C., &amp; Tsai, C. C. (2018). A long-term experiment to investigate the relationships between high school students’ perceptions of mobile learning and peer interaction and higher-order thinking tendencies. Educational Technology Research and Development, 66, 75-93.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hwang, G. J., Yin, C., &amp; Chu, H. C. (2019). The era of flipped learning: promoting active learning and higher order thinking with innovative flipped learning strategies and supporting systems. _Interactive Learning Environments_, _27_(8), 991-994.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ing, H. C., Yahaya, N., Laxman, K., &amp; Al-Rahmi, W. M. (2020). Examining learners’ interaction pattern in asynchronous text-based online learning. _i-manager’s Journal of Educational Technology_, _16_(4), 9-19.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Irvine, C. E., Thompson, M. F., &amp; Allen, K. (2005). CyberCIEGE: gaming for information assurance. _IEEE Security &amp; Privacy_, _3_(3), 61-64.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Israel, M., &amp; Lash, T. (2020). From classroom lessons to exploratory learning progressions: Mathematics+ computational thinking. _Interactive Learning Environments_, _28_(3), 362-382.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ivie, S. D. (1998). Ausubel's learning theory: An approach to teaching higher order thinking skills. _The High School Journal_, _82_(1), 35-42.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jahnke, I., Lee, Y. M., Pham, M., He, H., &amp; Austin, L. (2020). Unpacking the inherent design principles of mobile microlearning. _Technology, Knowledge and Learning_, _25_, 585-619.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jan, S. (2018). Investigating the Relationship between Students' Digital Literacy and Their Attitude towards Using ICT. _International Journal of Educational Technology_, _5_(2), 26-34.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeen, Y., Han, J., Kim, H., Lee, K., &amp; Park, P. (2007). Persuasive interaction strategy for self diet system: Exploring the relation of user attitude and intervention by computerized systematic methods. In _Human-Computer Interaction. HCI Applications and Services: 12th International Conference, HCI International 2007, Beijing, China, July 22-27, 2007, Proceedings, Part IV 12_ (pp. 450-458). Springer Berlin Heidelberg.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jin, G., Tu, M., Kim, T. H., Heffron, J., &amp; White, J. (2018). Evaluation of game-based learning in cybersecurity education for high school students. _Journal of Education and Learning (EduLearn)_, _12_(1), 150-158.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kabakci, I., Ferhan Odabasi, H., &amp; Kilicer, K. (2010). Transformative learning‐based mentoring for professional development of teacher educators in information and communication technologies: an approach for an emerging country. _Professional development in education_, _36_(1-2), 263-273.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jones, J., Yuan, X., Carr, E., &amp; Yu, H. (2010, March). A comparative study of CyberCIEGE game and Department of Defense Information Assurance Awareness video. In _Proceedings of the IEEE SoutheastCon 2010 (SoutheastCon)_(pp. 176-180). IEEE.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kaczmarczyk, J., Davidson, R., Bryden, D., Haselden, S., &amp; Vivekananda‐Schmidt, P. (2016). Learning decision making through serious games. _The clinical teacher_, _13_(4), 277-282.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kalmpourtzis, G. (2018). _Educational Game Design Fundamentals: A journey to creating intrinsically motivating learning experiences_. AK Peters/CRC Press.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kayali, F., Wallner, G., Kriglstein, S., Bauer, G., Martinek, D., Hlavacs, H., ... &amp; Wölfle, R. (2014). A case study of a learning game about the Internet. In _Games for Training, Education, Health and Sports: 4th International Conference on Serious Games, GameDays 2014, Darmstadt, Germany, April 1-5, 2014. Proceedings 4_ (pp. 47-58). Springer International Publishing.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ke, F. (2017). Designing intrinsic integration of learning and gaming actions in a 3D architecture game. In _Handbook of research on serious games for educational applications_ (pp. 234-252). IGI Global.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kebritchi, M., Hirumi, A., &amp; Bai, H. (2010). The effects of modern mathematics computer games on mathematics achievement and class motivation. _Computers &amp; education_, _55_(2), 427-443.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keller, T., Brucker-Kley, E., &amp; Schwammel, P. (2024). A case study of an immersive learning unit for German as a second language. _Discover Education_, _3_(1), 28.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Khalid, F. (2017). Understanding university students’ use of facebook for collaborative learning. _International Journal of Information and Education Technology_, _7_(8), 595-600.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Khalid, F., Daud, M. Y., Rahman, M. J. A., &amp; Nasir, M. K. M. (2018). An investigation of university students’ awareness on cyber security. _International Journal of Engineering &amp; Technology_, _7_(421), 11-14.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kiili, K. (2005). Digital game-based learning: Towards an experiential gaming model. _The Internet and higher education_, _8_(1), 13-24.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Knapp, K. J., Maurer, C., &amp; Plachkinova, M. (2017). Maintaining a cybersecurity curriculum: Professional certifications as valuable guidance. _Journal of Information Systems Education_, _28_(2), 101.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Koltay, T. (2011). The media and the literacies: Media literacy, information literacy, digital literacy. _Media, culture &amp; society_, _33_(2), 211-221.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kosmas, P., Ioannou, A., &amp; Retalis, S. (2018). Moving bodies to moving minds: A study of the use of motion-based games in special education. _TechTrends_, _62_(6), 594-601.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kourakli, M., Altanis, I., Retalis, S., Boloudakis, M., Zbainos, D., &amp; Antonopoulou, K. (2017). Towards the improvement of the cognitive, motoric and academic skills of students with special educational needs using Kinect learning games. _International Journal of Child-Computer Interaction_, _11_, 28-39.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kruse, C. S., Frederick, B., Jacobson, T., &amp; Monticone, D. K. (2017). Cybersecurity in healthcare: A systematic review of modern threats and trends. _Technology and Health Care_, _25_(1), 1-10.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ktoridou, D., Eteokleous, N., &amp; Zahariadou, A. (2012). Exploring parents’ and children's awareness on internet threats in relation to internet safety. _Campus-wide information systems_, _29_(3), 133-143.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lave, J., &amp; Wenger, E. (1991). _Situated learning: Legitimate peripheral participation_. Cambridge university press.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lee, H. Y., Wu, T. T., Lin, C. J., Wang, W. S., &amp; Huang, Y. M. (2024). Integrating Computational thinking into scaffolding learning: An innovative approach to enhance Science, Technology, Engineering, and Mathematics hands-on learning. _Journal of Educational Computing Research_, _62_(2), 431-467.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lu, K., Yang, H. H., Shi, Y., &amp; Wang, X. (2021). Examining the key influencing factors on college students’ higher-order thinking skills in the smart classroom environment. _International Journal of Educational Technology in Higher Education_, _18_, 1-13.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M. Prensky, ‘‘Computer games and learning: Digital game-based learn- ing,’’ in Handbook of Computer Game Studies, J. Raessens and J. Goldstein, Eds. Cambridge, MA, USA: MIT Press, 2005, pp. 97–122.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mahoney, J. W., &amp; Harris-Reeves, B. (2019). The effects of collaborative testing on higher order thinking: Do the bright get brighter?. _Active Learning in Higher Education_, _20_(1), 25-37.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mann, L., Chang, R., Chandrasekaran, S., Coddington, A., Daniel, S., Cook, E., ... &amp; Smith, T. D. (2021). From problem-based learning to practice-based education: A framework for shaping future engineers. _European Journal of Engineering Education_, _46_(1), 27-47.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lopes, I., Morenets, Y., Inácio, P. R., &amp; Silva, F. G. M. (2018). Cyber-detective—A game for cyber crime prevention. _Proceedings of the Play2Learn_, 175-191.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ligorio, M. B. (2010). Dialogical relationship between identity and learning. _Culture &amp; Psychology_, _16_(1), 93-107.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Azadegan, S., Lavine, M., O'Leary, M., Wijesinha, A., &amp; Zimand, M. (2003, June). An undergraduate track in computer security. In _Proceedings of the 8th Annual Conference on innovation and Technology in Computer Science Education_ (pp. 207-210).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marcelino, L., Fernandes, P. M., &amp; Cerqueira, J. (2024). Learning Engagement in a Pre-Alpha Version of an Educational Game: Evaluation and Proposed Solutions. _The International Journal of Games and Social Impact_, _2_(1), 28-45.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Matusov, E. (2001). Intersubjectivity as a way of informing teaching design for a community of learners classroom. _Teaching and teacher education_, _17_(4), 383-402.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mildner, P., &amp; ‘Floyd’Mueller, F. (2016). Design of serious games. _Serious games: Foundations, concepts and practice_, 57-82.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mintah, E. (2014). Using group method of teaching to address the problem of large class size: An action research. _International Journal of Learning &amp; Development_, _4_(2).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mory, E. H. (2013). Feedback research revisited. In _Handbook of research on educational communications and technology_ (pp. 738-776). Routledge.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Mosalanejad, L., Dehghan</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ı</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, A., &amp; Abdolah</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>ı</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="新細明體"/>
+        <family val="2"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fard, K. (2014). The students' experiences of ethics in online systems: A phenomenological study. _Turkish Online Journal of Distance Education_, _15_(4), 205-216.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mostafa, M., &amp; Faragallah, O. S. (2019). Development of serious games for teaching information security courses. _IEEE Access_, _7_, 169293-169305.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nyikes, Z. (2018). Contemporary digital competency review. _Interdisciplinary Description of Complex Systems: INDECS_, _16_(1), 124-131.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfCom, U. K. (2016). Children and parents: Media use and attitudes report. _London: Office of Communications London_.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Orji, R., Mandryk, R. L., Vassileva, J., &amp; Gerling, K. M. (2013, April). Tailoring persuasive health games to gamer type. In _Proceedings of the sigchi conference on human factors in computing systems_ (pp. 2467-2476).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Papastergiou, M. (2009). Digital game-based learning in high school computer science education: Impact on educational effectiveness and student motivation. _Computers &amp; education_, _52_(1), 1-12.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1059,7 +2145,7 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="10.5"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -1067,12 +2153,16 @@
       <scheme val="major"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="-webkit-standard"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Cambria"/>
       <family val="1"/>
       <charset val="136"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1212,7 +2302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1312,31 +2402,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1345,29 +2423,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1378,10 +2444,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1456,7 +2537,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
+      <xdr:colOff>518161</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>153029</xdr:rowOff>
     </xdr:to>
@@ -1840,16 +2921,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF365DA-0054-044B-95CE-62677B03BD2E}">
-  <dimension ref="A3:O175"/>
+  <dimension ref="A3:BP175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="110" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView topLeftCell="A129" zoomScale="86" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AM152" sqref="AM152:BJ164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="60" customWidth="1"/>
     <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="30.1640625" customWidth="1"/>
@@ -1862,7 +2943,7 @@
   <sheetData>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1877,18 +2958,18 @@
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
+      <c r="A6" s="50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>229</v>
       </c>
       <c r="C7" s="1">
         <v>0.81</v>
@@ -1899,7 +2980,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
+        <v>230</v>
       </c>
       <c r="C8" s="1">
         <v>0.81</v>
@@ -1910,7 +2991,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>232</v>
       </c>
       <c r="C9" s="1">
         <v>0.76</v>
@@ -1921,25 +3002,25 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>10</v>
+        <v>231</v>
       </c>
       <c r="C10" s="1">
         <v>0.79</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
+      <c r="A12" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>0.83</v>
@@ -1947,10 +3028,10 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
         <v>0.81</v>
@@ -1958,10 +3039,10 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C15" s="1">
         <v>0.76</v>
@@ -1969,28 +3050,28 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1">
         <v>0.79</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="50"/>
+      <c r="C18" s="50"/>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" s="1">
         <v>0.81</v>
@@ -1998,10 +3079,10 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1">
         <v>0.84</v>
@@ -2009,10 +3090,10 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C21" s="1">
         <v>0.83</v>
@@ -2020,12 +3101,12 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="17">
       <c r="A24" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -2042,13 +3123,13 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1"/>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1"/>
     </row>
@@ -2057,13 +3138,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B33" s="1"/>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>81</v>
+        <v>233</v>
       </c>
       <c r="B34" s="1"/>
       <c r="E34">
@@ -2072,7 +3153,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>82</v>
+        <v>234</v>
       </c>
       <c r="B35" s="1"/>
       <c r="E35">
@@ -2081,7 +3162,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>83</v>
+        <v>235</v>
       </c>
       <c r="B36" s="1"/>
       <c r="E36">
@@ -2090,7 +3171,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B37" s="1"/>
       <c r="E37">
@@ -2099,7 +3180,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>236</v>
       </c>
       <c r="E38">
         <v>0.84</v>
@@ -2107,7 +3188,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E40">
         <v>0.91</v>
@@ -2115,7 +3196,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E41">
         <v>0.9</v>
@@ -2123,7 +3204,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E42">
         <v>0.89</v>
@@ -2131,7 +3212,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E43">
         <v>0.68</v>
@@ -2139,7 +3220,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="E44">
         <v>0.45</v>
@@ -2147,17 +3228,17 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E50">
         <v>0.85</v>
@@ -2165,7 +3246,7 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E51">
         <v>0.85</v>
@@ -2173,7 +3254,7 @@
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E52">
         <v>0.83</v>
@@ -2181,7 +3262,7 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E53">
         <v>0.71</v>
@@ -2189,7 +3270,7 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E54">
         <v>0.68</v>
@@ -2197,7 +3278,7 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="E55">
         <v>0.47</v>
@@ -2205,7 +3286,7 @@
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E56">
         <v>0.45</v>
@@ -2213,12 +3294,12 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>94</v>
+        <v>237</v>
       </c>
       <c r="E60">
         <v>0.88</v>
@@ -2226,7 +3307,7 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E61">
         <v>0.84</v>
@@ -2234,7 +3315,7 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E62">
         <v>0.78</v>
@@ -2242,7 +3323,7 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E63">
         <v>0.45</v>
@@ -2250,489 +3331,551 @@
     </row>
     <row r="69" spans="1:1">
       <c r="A69" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="17">
       <c r="A70" s="3" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="106" spans="1:15" ht="16">
       <c r="A106" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H106" s="30"/>
       <c r="I106" s="51"/>
     </row>
     <row r="107" spans="1:15" ht="16">
       <c r="A107" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="H107" s="30"/>
       <c r="I107" s="51"/>
     </row>
     <row r="108" spans="1:15" ht="16">
-      <c r="H108" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="I108" s="52" t="s">
-        <v>203</v>
+      <c r="H108" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="I108" s="44" t="s">
+        <v>192</v>
       </c>
       <c r="J108" s="29"/>
-      <c r="K108" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="L108" s="52" t="s">
-        <v>203</v>
+      <c r="K108" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="L108" s="44" t="s">
+        <v>192</v>
       </c>
       <c r="M108" s="29"/>
-      <c r="N108" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="O108" s="52" t="s">
-        <v>203</v>
+      <c r="N108" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="O108" s="44" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="109" spans="1:15" ht="16">
       <c r="A109" t="s">
+        <v>209</v>
+      </c>
+      <c r="H109" s="33" t="s">
+        <v>208</v>
+      </c>
+      <c r="I109" s="47">
+        <v>4.51</v>
+      </c>
+      <c r="J109" s="28"/>
+      <c r="K109" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="L109" s="47">
+        <v>4.34</v>
+      </c>
+      <c r="M109" s="28"/>
+      <c r="N109" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="H109" s="34" t="s">
-        <v>223</v>
-      </c>
-      <c r="I109" s="55">
-        <v>4.51</v>
-      </c>
-      <c r="J109" s="33"/>
-      <c r="K109" s="34" t="s">
-        <v>231</v>
-      </c>
-      <c r="L109" s="55">
-        <v>4.34</v>
-      </c>
-      <c r="M109" s="33"/>
-      <c r="N109" s="34" t="s">
-        <v>239</v>
-      </c>
-      <c r="O109" s="55">
+      <c r="O109" s="47">
         <v>3.6</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="16">
       <c r="A110" t="s">
-        <v>149</v>
-      </c>
-      <c r="H110" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="I110" s="55">
+        <v>140</v>
+      </c>
+      <c r="H110" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="I110" s="47">
         <v>4.3600000000000003</v>
       </c>
-      <c r="J110" s="33"/>
-      <c r="K110" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="L110" s="55">
+      <c r="J110" s="28"/>
+      <c r="K110" s="33" t="s">
+        <v>218</v>
+      </c>
+      <c r="L110" s="47">
         <v>4.17</v>
       </c>
-      <c r="M110" s="33"/>
-      <c r="N110" s="34" t="s">
-        <v>241</v>
-      </c>
-      <c r="O110" s="55">
+      <c r="M110" s="28"/>
+      <c r="N110" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="O110" s="47">
         <v>4.13</v>
       </c>
     </row>
     <row r="111" spans="1:15" ht="16">
       <c r="A111" t="s">
-        <v>150</v>
-      </c>
-      <c r="H111" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="I111" s="55">
+        <v>141</v>
+      </c>
+      <c r="H111" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="I111" s="47">
         <v>4.5599999999999996</v>
       </c>
-      <c r="J111" s="33"/>
-      <c r="K111" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="L111" s="55">
+      <c r="J111" s="28"/>
+      <c r="K111" s="33" t="s">
+        <v>220</v>
+      </c>
+      <c r="L111" s="47">
         <v>4.42</v>
       </c>
-      <c r="M111" s="33"/>
-      <c r="N111" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="O111" s="55">
+      <c r="M111" s="28"/>
+      <c r="N111" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="O111" s="47">
         <v>3.54</v>
       </c>
     </row>
     <row r="112" spans="1:15" ht="16">
       <c r="A112" t="s">
+        <v>142</v>
+      </c>
+      <c r="H112" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="I112" s="48">
+        <v>4.3</v>
+      </c>
+      <c r="J112" s="46"/>
+      <c r="K112" s="45" t="s">
+        <v>222</v>
+      </c>
+      <c r="L112" s="48">
+        <v>3.76</v>
+      </c>
+      <c r="M112" s="46"/>
+      <c r="N112" s="45"/>
+      <c r="O112" s="31"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>238</v>
+      </c>
+      <c r="D119" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>147</v>
+      </c>
+      <c r="D120" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>150</v>
+      </c>
+      <c r="D125" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
         <v>151</v>
       </c>
-      <c r="H112" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="I112" s="56">
-        <v>4.3</v>
-      </c>
-      <c r="J112" s="54"/>
-      <c r="K112" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="L112" s="56">
-        <v>3.76</v>
-      </c>
-      <c r="M112" s="54"/>
-      <c r="N112" s="53"/>
-      <c r="O112" s="31"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" t="s">
+      <c r="D126" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" t="s">
+      <c r="D129" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" t="s">
+      <c r="D130" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="118" spans="1:1">
-      <c r="A118" t="s">
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" t="s">
+      <c r="D135" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="1:1">
-      <c r="A120" t="s">
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" t="s">
+      <c r="D137" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" t="s">
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="125" spans="1:1">
-      <c r="A125" t="s">
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="126" spans="1:1">
-      <c r="A126" t="s">
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="128" spans="1:1">
-      <c r="A128" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" t="s">
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:1">
-      <c r="A130" t="s">
+    <row r="145" spans="1:68">
+      <c r="A145" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="131" spans="1:1">
-      <c r="A131" t="s">
+    <row r="146" spans="1:68">
+      <c r="A146" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:1">
-      <c r="A132" t="s">
+    <row r="147" spans="1:68">
+      <c r="A147" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
-      <c r="A135" t="s">
+      <c r="D147" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="1:1">
-      <c r="A136" t="s">
+    <row r="149" spans="1:68">
+      <c r="A149" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="137" spans="1:1">
-      <c r="A137" t="s">
+    <row r="151" spans="1:68">
+      <c r="A151" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="138" spans="1:1">
-      <c r="A138" t="s">
+    <row r="153" spans="1:68">
+      <c r="A153" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" t="s">
+      <c r="D153" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="142" spans="1:1">
-      <c r="A142" t="s">
+    <row r="156" spans="1:68">
+      <c r="A156" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" t="s">
+      <c r="D157" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68" ht="18">
+      <c r="A158" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" t="s">
+      <c r="AC158" s="49"/>
+      <c r="BK158">
+        <v>3</v>
+      </c>
+      <c r="BL158">
+        <v>5</v>
+      </c>
+      <c r="BM158">
+        <v>3</v>
+      </c>
+      <c r="BN158">
+        <v>2</v>
+      </c>
+      <c r="BO158">
+        <v>3</v>
+      </c>
+      <c r="BP158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="145" spans="1:1">
-      <c r="A145" t="s">
+    <row r="160" spans="1:68">
+      <c r="A160" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" t="s">
+    <row r="162" spans="1:29">
+      <c r="A162" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="163" spans="1:29">
+      <c r="A163" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="147" spans="1:1">
-      <c r="A147" t="s">
+      <c r="E163" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="164" spans="1:29" ht="18">
+      <c r="A164" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="148" spans="1:1">
-      <c r="A148" t="s">
+      <c r="AC164" s="49"/>
+    </row>
+    <row r="166" spans="1:29">
+      <c r="A166" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="149" spans="1:1">
-      <c r="A149" t="s">
+    <row r="167" spans="1:29">
+      <c r="A167" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="151" spans="1:1">
-      <c r="A151" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
-      <c r="A152" t="s">
+      <c r="D167" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="168" spans="1:29">
+      <c r="A168" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="153" spans="1:1">
-      <c r="A153" t="s">
+    <row r="169" spans="1:29">
+      <c r="A169" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="154" spans="1:1">
-      <c r="A154" t="s">
+    <row r="171" spans="1:29">
+      <c r="A171" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="172" spans="1:29">
+      <c r="A172" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="156" spans="1:1">
-      <c r="A156" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
-      <c r="A157" t="s">
+    <row r="173" spans="1:29">
+      <c r="A173" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="158" spans="1:1">
-      <c r="A158" t="s">
+      <c r="D173" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="174" spans="1:29">
+      <c r="A174" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="159" spans="1:1">
-      <c r="A159" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
-      <c r="A160" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
-      <c r="A167" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
-      <c r="A168" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
-      <c r="A169" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
-      <c r="A171" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
-      <c r="A172" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
-      <c r="A173" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
-      <c r="A174" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+    <row r="175" spans="1:29">
       <c r="A175" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2771,7 +3914,7 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -2786,7 +3929,7 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -2796,20 +3939,20 @@
     <row r="5" spans="1:5" ht="16">
       <c r="A5" s="9"/>
       <c r="B5" s="4" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C6" s="4">
         <v>100</v>
@@ -2821,7 +3964,7 @@
     <row r="7" spans="1:5" ht="16">
       <c r="A7" s="13"/>
       <c r="B7" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C7" s="4">
         <v>50</v>
@@ -2833,7 +3976,7 @@
     <row r="8" spans="1:5">
       <c r="A8" s="13"/>
       <c r="B8" s="4" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C8" s="4">
         <v>150</v>
@@ -2844,7 +3987,7 @@
     </row>
     <row r="9" spans="1:5" ht="16" thickBot="1">
       <c r="A9" s="14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
@@ -2853,16 +3996,16 @@
     <row r="11" spans="1:5" ht="16" thickBot="1"/>
     <row r="12" spans="1:5">
       <c r="A12" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B12" s="8"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" thickBot="1">
@@ -2876,7 +4019,7 @@
     <row r="16" spans="1:5" ht="16" thickBot="1"/>
     <row r="17" spans="1:5">
       <c r="A17" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2886,21 +4029,21 @@
     <row r="18" spans="1:5" ht="16">
       <c r="A18" s="9"/>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="11" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B19" s="4">
         <v>37.5608</v>
@@ -2917,7 +4060,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B20" s="4">
         <v>37.6008</v>
@@ -2968,7 +4111,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="11" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B23" s="4">
         <v>37.610799999999998</v>
@@ -2985,7 +4128,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="11" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B24" s="4">
         <v>37.650799999999997</v>
@@ -3002,7 +4145,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="11" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B25" s="4">
         <v>37.580800000000004</v>
@@ -3019,7 +4162,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="11" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B26" s="4">
         <v>37.590800000000002</v>
@@ -3036,7 +4179,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="11" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B27" s="4">
         <v>37.510800000000003</v>
@@ -3053,7 +4196,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B28" s="4">
         <v>37.590800000000002</v>
@@ -3070,7 +4213,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="11" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B29" s="4">
         <v>37.840800000000002</v>
@@ -3087,7 +4230,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B30" s="4">
         <v>37.575800000000001</v>
@@ -3104,7 +4247,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B31" s="4">
         <v>37.6083</v>
@@ -3121,7 +4264,7 @@
     </row>
     <row r="32" spans="1:5" ht="16" thickBot="1">
       <c r="A32" s="14" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B32" s="18">
         <v>37.647500000000001</v>
@@ -3138,12 +4281,12 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="19">
       <c r="A40" s="19" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B40" s="19"/>
       <c r="C40" s="19"/>
@@ -3153,19 +4296,19 @@
     <row r="41" spans="1:5" ht="19">
       <c r="A41" s="21"/>
       <c r="B41" s="21" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C41" s="21" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D41" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E41" s="19"/>
     </row>
     <row r="42" spans="1:5" ht="19">
       <c r="A42" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B42" s="19">
         <v>0.84</v>
@@ -3180,7 +4323,7 @@
     </row>
     <row r="43" spans="1:5" ht="19">
       <c r="A43" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B43" s="22">
         <v>0.75</v>
@@ -3223,7 +4366,7 @@
     </row>
     <row r="48" spans="1:5" ht="19">
       <c r="A48" s="19" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B48" s="19"/>
       <c r="C48" s="19"/>
@@ -3233,21 +4376,21 @@
     <row r="49" spans="1:5" ht="19">
       <c r="A49" s="21"/>
       <c r="B49" s="21" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C49" s="21" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D49" s="21" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="19">
       <c r="A50" s="19" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B50" s="23">
         <v>0.82</v>
@@ -3264,124 +4407,124 @@
     </row>
     <row r="51" spans="1:5" ht="19">
       <c r="A51" s="22" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D51" s="24" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E51" s="24" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="19">
       <c r="A54" s="19" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="19">
       <c r="A55" s="21" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="B55" s="20" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="C55" s="20" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="26" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B56" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56" s="26" t="s">
         <v>125</v>
-      </c>
-      <c r="C56" s="26" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="27"/>
       <c r="B57" s="27" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="26" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="B58" s="26" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="B59" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C59" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
         <v>129</v>
-      </c>
-      <c r="C60" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="27"/>
       <c r="B61" s="27" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="26" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B62" s="26" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="B63" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C63" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="27"/>
       <c r="B64" s="27" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C64" s="27" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3413,30 +4556,30 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B82" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
       <c r="C82" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="D82" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="E82" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="F82" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3528,7 +4671,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -3543,25 +4686,25 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -7427,10 +8570,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56C3708-C671-B243-AEFD-DE24A7A9AE9E}">
-  <dimension ref="F8:M33"/>
+  <dimension ref="F8:R49"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView topLeftCell="C26" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -7449,370 +8592,370 @@
   </cols>
   <sheetData>
     <row r="8" spans="7:13">
-      <c r="G8" s="49" t="s">
-        <v>107</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="I8" s="49" t="s">
-        <v>216</v>
-      </c>
-      <c r="J8" s="49" t="s">
+      <c r="G8" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="H8" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="42" t="s">
+        <v>204</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="K8" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="L8" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="M8" s="42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="7:13">
+      <c r="G9" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="I9" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="J9" s="52">
+        <v>3.05</v>
+      </c>
+      <c r="K9" s="52">
+        <v>0.92</v>
+      </c>
+      <c r="L9" s="52">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="M9" s="52">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="7:13">
+      <c r="G10" s="35"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J10" s="52">
+        <v>3.12</v>
+      </c>
+      <c r="K10" s="52">
+        <v>0.95</v>
+      </c>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+    </row>
+    <row r="11" spans="7:13">
+      <c r="G11" s="34"/>
+      <c r="H11" s="35" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J11" s="52">
+        <v>3.45</v>
+      </c>
+      <c r="K11" s="52">
+        <v>0.98</v>
+      </c>
+      <c r="L11" s="52">
+        <v>0.502</v>
+      </c>
+      <c r="M11" s="52">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="7:13">
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J12" s="52">
+        <v>3.39</v>
+      </c>
+      <c r="K12" s="52">
+        <v>0.91</v>
+      </c>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+    </row>
+    <row r="13" spans="7:13">
+      <c r="G13" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>197</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J13" s="52">
+        <v>3.85</v>
+      </c>
+      <c r="K13" s="52">
+        <v>0.85</v>
+      </c>
+      <c r="L13" s="52">
+        <v>2.214</v>
+      </c>
+      <c r="M13" s="52">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="7:13">
+      <c r="G14" s="35"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" s="53">
+        <v>3.65</v>
+      </c>
+      <c r="K14" s="53">
+        <v>0.82</v>
+      </c>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+    </row>
+    <row r="15" spans="7:13">
+      <c r="G15" s="34"/>
+      <c r="H15" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J15" s="52">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K15" s="52">
+        <v>0.87</v>
+      </c>
+      <c r="L15" s="52">
+        <v>5.7839999999999998</v>
+      </c>
+      <c r="M15" s="52" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="16" spans="7:13">
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J16" s="52">
+        <v>3.6</v>
+      </c>
+      <c r="K16" s="52">
+        <v>0.84</v>
+      </c>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+    </row>
+    <row r="17" spans="6:15">
+      <c r="G17" s="35"/>
+      <c r="H17" s="35" t="s">
+        <v>199</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J17" s="52">
+        <v>4.05</v>
+      </c>
+      <c r="K17" s="52">
+        <v>0.89</v>
+      </c>
+      <c r="L17" s="52">
+        <v>5.3</v>
+      </c>
+      <c r="M17" s="52" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="18" spans="6:15">
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J18" s="52">
+        <v>3.55</v>
+      </c>
+      <c r="K18" s="52">
+        <v>0.91</v>
+      </c>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+    </row>
+    <row r="19" spans="6:15">
+      <c r="F19" s="4"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="35" t="s">
+        <v>200</v>
+      </c>
+      <c r="I19" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J19" s="52">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="K19" s="52">
+        <v>0.83</v>
+      </c>
+      <c r="L19" s="52">
+        <v>4.6289999999999996</v>
+      </c>
+      <c r="M19" s="52" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="6:15">
+      <c r="F20" s="4"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J20" s="52">
+        <v>3.7</v>
+      </c>
+      <c r="K20" s="52">
+        <v>0.94</v>
+      </c>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+    </row>
+    <row r="21" spans="6:15">
+      <c r="F21" s="4"/>
+      <c r="G21" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" s="35" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J21" s="52">
+        <v>3.8</v>
+      </c>
+      <c r="K21" s="52">
+        <v>0.88</v>
+      </c>
+      <c r="L21" s="52">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="M21" s="52">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="6:15">
+      <c r="F22" s="4"/>
+      <c r="G22" s="37"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J22" s="52">
+        <v>3.6</v>
+      </c>
+      <c r="K22" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+    </row>
+    <row r="23" spans="6:15">
+      <c r="F23" s="4"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="35" t="s">
+        <v>202</v>
+      </c>
+      <c r="I23" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J23" s="52">
+        <v>3.55</v>
+      </c>
+      <c r="K23" s="52">
+        <v>1.02</v>
+      </c>
+      <c r="L23" s="52">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="M23" s="52">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="24" spans="6:15">
+      <c r="F24" s="4"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="36" t="s">
+        <v>206</v>
+      </c>
+      <c r="J24" s="52">
+        <v>3.45</v>
+      </c>
+      <c r="K24" s="52">
+        <v>0.99</v>
+      </c>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+    </row>
+    <row r="25" spans="6:15">
+      <c r="F25" s="4"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="K8" s="49" t="s">
-        <v>204</v>
-      </c>
-      <c r="L8" s="49" t="s">
-        <v>198</v>
-      </c>
-      <c r="M8" s="49" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="7:13">
-      <c r="G9" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>207</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>217</v>
-      </c>
-      <c r="J9" s="44">
-        <v>2.68</v>
-      </c>
-      <c r="K9" s="44">
-        <v>0.96</v>
-      </c>
-      <c r="L9" s="44">
-        <v>0.69399999999999995</v>
-      </c>
-      <c r="M9" s="44">
-        <v>0.40699999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="7:13">
-      <c r="G10" s="36"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="J10" s="38">
-        <v>2.88</v>
-      </c>
-      <c r="K10" s="38">
-        <v>1.23</v>
-      </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-    </row>
-    <row r="11" spans="7:13">
-      <c r="G11" s="35"/>
-      <c r="H11" s="36" t="s">
-        <v>208</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="J11" s="38">
-        <v>3.3</v>
-      </c>
-      <c r="K11" s="38">
-        <v>1</v>
-      </c>
-      <c r="L11" s="38">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="M11" s="38">
-        <v>0.40200000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="7:13">
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="J12" s="38">
-        <v>3.12</v>
-      </c>
-      <c r="K12" s="38">
-        <v>0.94</v>
-      </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="38"/>
-    </row>
-    <row r="13" spans="7:13">
-      <c r="G13" s="36" t="s">
-        <v>123</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>209</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="J13" s="38">
-        <v>4.05</v>
-      </c>
-      <c r="K13" s="38">
-        <v>0.82</v>
-      </c>
-      <c r="L13" s="38">
-        <v>2.714</v>
-      </c>
-      <c r="M13" s="38">
-        <v>0.10299999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="7:13">
-      <c r="G14" s="36"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="J14" s="38">
-        <v>3.76</v>
-      </c>
-      <c r="K14" s="38">
-        <v>0.79</v>
-      </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
-    </row>
-    <row r="15" spans="7:13">
-      <c r="G15" s="35"/>
-      <c r="H15" s="36" t="s">
-        <v>210</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="J15" s="38">
+      <c r="I25" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" s="52">
+        <v>4.25</v>
+      </c>
+      <c r="K25" s="52">
+        <v>0.8</v>
+      </c>
+      <c r="L25" s="52">
+        <v>14.86</v>
+      </c>
+      <c r="M25" s="52" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="6:15">
+      <c r="F26" s="4"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="41" t="s">
+        <v>206</v>
+      </c>
+      <c r="J26" s="52">
         <v>3.7</v>
       </c>
-      <c r="K15" s="38">
-        <v>0.9</v>
-      </c>
-      <c r="L15" s="38">
-        <v>5.157</v>
-      </c>
-      <c r="M15" s="38" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="16" spans="7:13">
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="J16" s="38">
-        <v>3.29</v>
-      </c>
-      <c r="K16" s="38">
-        <v>0.81</v>
-      </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-    </row>
-    <row r="17" spans="6:13">
-      <c r="G17" s="36"/>
-      <c r="H17" s="36" t="s">
-        <v>211</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="J17" s="38">
-        <v>3.75</v>
-      </c>
-      <c r="K17" s="38">
-        <v>9.9700000000000006</v>
-      </c>
-      <c r="L17" s="38">
-        <v>5.2089999999999996</v>
-      </c>
-      <c r="M17" s="38" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="6:13">
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="J18" s="38">
-        <v>3.26</v>
-      </c>
-      <c r="K18" s="38">
-        <v>1.01</v>
-      </c>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-    </row>
-    <row r="19" spans="6:13">
-      <c r="F19" s="4"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="36" t="s">
-        <v>212</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="J19" s="38">
-        <v>3.8</v>
-      </c>
-      <c r="K19" s="38">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="L19" s="38">
-        <v>4.4290000000000003</v>
-      </c>
-      <c r="M19" s="38" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="6:13">
-      <c r="F20" s="4"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="J20" s="38">
-        <v>3.26</v>
-      </c>
-      <c r="K20" s="38">
-        <v>1.25</v>
-      </c>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-    </row>
-    <row r="21" spans="6:13">
-      <c r="F21" s="4"/>
-      <c r="G21" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="H21" s="36" t="s">
-        <v>213</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="J21" s="40">
-        <v>4.07</v>
-      </c>
-      <c r="K21" s="40">
-        <v>0.82</v>
-      </c>
-      <c r="L21" s="40">
-        <v>2.302</v>
-      </c>
-      <c r="M21" s="38">
-        <v>0.158</v>
-      </c>
-    </row>
-    <row r="22" spans="6:13">
-      <c r="F22" s="4"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="J22" s="40">
-        <v>3.81</v>
-      </c>
-      <c r="K22" s="40">
-        <v>0.86</v>
-      </c>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
-    </row>
-    <row r="23" spans="6:13">
-      <c r="F23" s="4"/>
-      <c r="G23" s="41"/>
-      <c r="H23" s="36" t="s">
-        <v>214</v>
-      </c>
-      <c r="I23" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="J23" s="40">
-        <v>3.61</v>
-      </c>
-      <c r="K23" s="40">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L23" s="40">
-        <v>0.627</v>
-      </c>
-      <c r="M23" s="38">
-        <v>0.43099999999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="6:13">
-      <c r="F24" s="4"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="J24" s="40">
-        <v>3.43</v>
-      </c>
-      <c r="K24" s="40">
-        <v>1.06</v>
-      </c>
-      <c r="L24" s="40"/>
-      <c r="M24" s="38"/>
-    </row>
-    <row r="25" spans="6:13">
-      <c r="F25" s="4"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="36" t="s">
-        <v>215</v>
-      </c>
-      <c r="I25" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="J25" s="40">
-        <v>4.3</v>
-      </c>
-      <c r="K25" s="40">
-        <v>0.77</v>
-      </c>
-      <c r="L25" s="40">
-        <v>15.045</v>
-      </c>
-      <c r="M25" s="38" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="6:13">
-      <c r="F26" s="4"/>
-      <c r="G26" s="45"/>
-      <c r="H26" s="45"/>
-      <c r="I26" s="46" t="s">
-        <v>218</v>
-      </c>
-      <c r="J26" s="47">
-        <v>3.67</v>
-      </c>
-      <c r="K26" s="48">
-        <v>0.79</v>
-      </c>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-    </row>
-    <row r="27" spans="6:13" ht="16">
+      <c r="K26" s="52">
+        <v>0.85</v>
+      </c>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+    </row>
+    <row r="27" spans="6:15" ht="16">
       <c r="F27" s="4"/>
       <c r="G27" s="32" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
@@ -7820,7 +8963,7 @@
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="6:13" ht="16">
+    <row r="28" spans="6:15" ht="16">
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
@@ -7829,20 +8972,1287 @@
       <c r="K28" s="5"/>
       <c r="L28" s="5"/>
     </row>
-    <row r="29" spans="6:13" ht="16">
+    <row r="29" spans="6:15" ht="16">
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-    </row>
-    <row r="33" ht="19"/>
+      <c r="I29" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="M29" t="s">
+        <v>258</v>
+      </c>
+      <c r="N29" t="s">
+        <v>259</v>
+      </c>
+      <c r="O29" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="6:15">
+      <c r="I30" t="s">
+        <v>113</v>
+      </c>
+      <c r="J30" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" t="s">
+        <v>261</v>
+      </c>
+      <c r="L30">
+        <v>3.05</v>
+      </c>
+      <c r="M30">
+        <v>0.92</v>
+      </c>
+      <c r="N30">
+        <v>0.56699999999999995</v>
+      </c>
+      <c r="O30">
+        <v>0.45300000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="6:15">
+      <c r="K31" t="s">
+        <v>262</v>
+      </c>
+      <c r="L31">
+        <v>3.12</v>
+      </c>
+      <c r="M31">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="32" spans="6:15">
+      <c r="J32" t="s">
+        <v>196</v>
+      </c>
+      <c r="K32" t="s">
+        <v>261</v>
+      </c>
+      <c r="L32">
+        <v>3.45</v>
+      </c>
+      <c r="M32">
+        <v>0.98</v>
+      </c>
+      <c r="N32">
+        <v>0.502</v>
+      </c>
+      <c r="O32">
+        <v>0.48099999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="9:15">
+      <c r="K33" t="s">
+        <v>262</v>
+      </c>
+      <c r="L33">
+        <v>3.39</v>
+      </c>
+      <c r="M33">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="34" spans="9:15">
+      <c r="I34" t="s">
+        <v>114</v>
+      </c>
+      <c r="J34" t="s">
+        <v>197</v>
+      </c>
+      <c r="K34" t="s">
+        <v>261</v>
+      </c>
+      <c r="L34">
+        <v>3.85</v>
+      </c>
+      <c r="M34">
+        <v>0.85</v>
+      </c>
+      <c r="N34">
+        <v>2.214</v>
+      </c>
+      <c r="O34">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="9:15">
+      <c r="K35" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" s="32">
+        <v>3.65</v>
+      </c>
+      <c r="M35" s="32">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="36" spans="9:15">
+      <c r="J36" t="s">
+        <v>198</v>
+      </c>
+      <c r="K36" t="s">
+        <v>205</v>
+      </c>
+      <c r="L36">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M36">
+        <v>0.87</v>
+      </c>
+      <c r="N36">
+        <v>5.7839999999999998</v>
+      </c>
+      <c r="O36" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="37" spans="9:15">
+      <c r="K37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L37">
+        <v>3.6</v>
+      </c>
+      <c r="M37">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="38" spans="9:15">
+      <c r="J38" t="s">
+        <v>199</v>
+      </c>
+      <c r="K38" t="s">
+        <v>261</v>
+      </c>
+      <c r="L38">
+        <v>4.05</v>
+      </c>
+      <c r="M38">
+        <v>0.89</v>
+      </c>
+      <c r="N38">
+        <v>5.3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="39" spans="9:15">
+      <c r="K39" t="s">
+        <v>262</v>
+      </c>
+      <c r="L39">
+        <v>3.55</v>
+      </c>
+      <c r="M39">
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="40" spans="9:15">
+      <c r="J40" t="s">
+        <v>200</v>
+      </c>
+      <c r="K40" t="s">
+        <v>261</v>
+      </c>
+      <c r="L40">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="M40">
+        <v>0.83</v>
+      </c>
+      <c r="N40">
+        <v>4.6289999999999996</v>
+      </c>
+      <c r="O40" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="41" spans="9:15">
+      <c r="K41" t="s">
+        <v>262</v>
+      </c>
+      <c r="L41">
+        <v>3.7</v>
+      </c>
+      <c r="M41">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="42" spans="9:15">
+      <c r="I42" t="s">
+        <v>266</v>
+      </c>
+      <c r="J42" t="s">
+        <v>201</v>
+      </c>
+      <c r="K42" t="s">
+        <v>261</v>
+      </c>
+      <c r="L42">
+        <v>3.8</v>
+      </c>
+      <c r="M42">
+        <v>0.88</v>
+      </c>
+      <c r="N42">
+        <v>1.9870000000000001</v>
+      </c>
+      <c r="O42">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="9:15">
+      <c r="I43" t="s">
+        <v>267</v>
+      </c>
+      <c r="J43" t="s">
+        <v>268</v>
+      </c>
+      <c r="K43" t="s">
+        <v>262</v>
+      </c>
+      <c r="L43">
+        <v>3.6</v>
+      </c>
+      <c r="M43">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="44" spans="9:15">
+      <c r="J44" t="s">
+        <v>202</v>
+      </c>
+      <c r="K44" t="s">
+        <v>261</v>
+      </c>
+      <c r="L44">
+        <v>3.55</v>
+      </c>
+      <c r="M44">
+        <v>1.02</v>
+      </c>
+      <c r="N44">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="O44">
+        <v>0.378</v>
+      </c>
+    </row>
+    <row r="45" spans="9:15">
+      <c r="K45" t="s">
+        <v>262</v>
+      </c>
+      <c r="L45">
+        <v>3.45</v>
+      </c>
+      <c r="M45">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="46" spans="9:15">
+      <c r="J46" t="s">
+        <v>203</v>
+      </c>
+      <c r="K46" t="s">
+        <v>261</v>
+      </c>
+      <c r="L46">
+        <v>4.25</v>
+      </c>
+      <c r="M46">
+        <v>0.8</v>
+      </c>
+      <c r="N46">
+        <v>14.86</v>
+      </c>
+      <c r="O46" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="9:15">
+      <c r="K47" t="s">
+        <v>262</v>
+      </c>
+      <c r="L47">
+        <v>3.7</v>
+      </c>
+      <c r="M47">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="49" spans="9:18">
+      <c r="I49" t="s">
+        <v>270</v>
+      </c>
+      <c r="J49" t="s">
+        <v>271</v>
+      </c>
+      <c r="K49" t="s">
+        <v>272</v>
+      </c>
+      <c r="L49" t="s">
+        <v>273</v>
+      </c>
+      <c r="M49" t="s">
+        <v>274</v>
+      </c>
+      <c r="N49" t="s">
+        <v>272</v>
+      </c>
+      <c r="O49" t="s">
+        <v>275</v>
+      </c>
+      <c r="P49" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>272</v>
+      </c>
+      <c r="R49">
+        <v>1E-3</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398635A7-237C-FF4F-95AB-151281D6129C}">
+  <dimension ref="A2:A182"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="158" zoomScaleNormal="158" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="16">
+      <c r="A38" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" ht="16">
+      <c r="A114" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" ht="16">
+      <c r="A124" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1">
+      <c r="A149" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1">
+      <c r="A150" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1">
+      <c r="A152" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" ht="16">
+      <c r="A153" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1">
+      <c r="A154" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1">
+      <c r="A156" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1">
+      <c r="A158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1">
+      <c r="A163" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1">
+      <c r="A170" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1">
+      <c r="A173" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" ht="16">
+      <c r="A175" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1">
+      <c r="A176" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1">
+      <c r="A178" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1">
+      <c r="A180" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>289</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A182">
+    <sortCondition ref="A4:A182"/>
+  </sortState>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>